--- a/excelAprs.xlsx
+++ b/excelAprs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Disciplinas\MEI\1Ano\1semestre\IM\Projeto\IM_Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Legion\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B2419D-AC00-4B94-85A5-4E1DE80DD0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A0EC73-7857-495C-AA3D-ED8A4CC0D1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9929B2B1-826E-4FFD-90C0-05EB99F5159B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9929B2B1-826E-4FFD-90C0-05EB99F5159B}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -143,14 +143,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,375 +486,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7063974-1A01-497B-AA89-8487A2D5F08A}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="13.88671875" customWidth="1"/>
+    <col min="1" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>107177</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="C2" s="2">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>89063</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="C3" s="2">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>110529</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>115908</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="C5" s="2">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>90498</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="2">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
         <v>14</v>
       </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="F6" s="2">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>113100</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
         <v>14</v>
       </c>
-      <c r="F7">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="F7" s="2">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>108581</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>17</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>17</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>108986</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>16</v>
-      </c>
-      <c r="F9">
+      <c r="C9" s="2">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>108661</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
-        <v>15</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
         <v>18</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
         <v>20</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>108780</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>108342</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>10</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>105045</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>13</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>13</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>12</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>104454</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
         <v>11</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>13</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>12</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>12</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>110080</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="C15" s="2">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>16</v>
+      </c>
+      <c r="F15" s="2">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>84293</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16">
-        <v>16</v>
-      </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>16</v>
-      </c>
-      <c r="F16">
-        <v>16</v>
-      </c>
-      <c r="G16">
-        <v>16</v>
-      </c>
+      <c r="C16" s="2">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2">
+        <v>16</v>
+      </c>
+      <c r="K16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
